--- a/data-raw/File lists for functions/PS_HCPCS.xlsx
+++ b/data-raw/File lists for functions/PS_HCPCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahemmig\Desktop\USRDS project\R function definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2FAFA-CEDD-4778-ACC3-27D9267E0ECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD3531-25D9-4055-9A1E-19CA2BDD3E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Year</t>
   </si>
@@ -277,6 +277,36 @@
   </si>
   <si>
     <t>ps_line_2016</t>
+  </si>
+  <si>
+    <t>dme_line_2017</t>
+  </si>
+  <si>
+    <t>ps_line_2017</t>
+  </si>
+  <si>
+    <t>dme_line_2018</t>
+  </si>
+  <si>
+    <t>ps_line_2018</t>
+  </si>
+  <si>
+    <t>dme_line_2019</t>
+  </si>
+  <si>
+    <t>ps_line_2019</t>
+  </si>
+  <si>
+    <t>dme_line_2020</t>
+  </si>
+  <si>
+    <t>ps_line_2020</t>
+  </si>
+  <si>
+    <t>dme_line_2021</t>
+  </si>
+  <si>
+    <t>ps_line_2021</t>
   </si>
 </sst>
 </file>
@@ -332,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,7 +402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -478,7 +508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,18 +658,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD9F47-8E00-445A-90A0-21879819D54B}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -655,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -663,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -671,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -679,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -687,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -695,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -703,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -711,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -719,7 +749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -727,7 +757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -735,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2007</v>
       </c>
@@ -743,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -751,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -759,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -767,7 +797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2007</v>
       </c>
@@ -775,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -783,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -791,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -799,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -807,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -815,7 +845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -823,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -831,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -839,7 +869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2008</v>
       </c>
@@ -847,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2008</v>
       </c>
@@ -855,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -863,7 +893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2008</v>
       </c>
@@ -871,7 +901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -879,7 +909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -887,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2008</v>
       </c>
@@ -895,7 +925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -903,7 +933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2008</v>
       </c>
@@ -911,7 +941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -919,7 +949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2009</v>
       </c>
@@ -927,7 +957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2009</v>
       </c>
@@ -935,7 +965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -943,7 +973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2009</v>
       </c>
@@ -951,7 +981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -959,7 +989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -967,7 +997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2009</v>
       </c>
@@ -975,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2009</v>
       </c>
@@ -983,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -991,7 +1021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2009</v>
       </c>
@@ -999,7 +1029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2009</v>
       </c>
@@ -1007,7 +1037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2010</v>
       </c>
@@ -1015,7 +1045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2010</v>
       </c>
@@ -1023,7 +1053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -1031,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2010</v>
       </c>
@@ -1039,7 +1069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -1047,7 +1077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -1055,7 +1085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -1063,7 +1093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -1071,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -1079,7 +1109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2010</v>
       </c>
@@ -1087,7 +1117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2010</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2010</v>
       </c>
@@ -1103,7 +1133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -1111,7 +1141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -1119,7 +1149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -1127,7 +1157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -1135,7 +1165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -1143,7 +1173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -1151,7 +1181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -1159,7 +1189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -1167,7 +1197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -1175,7 +1205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -1183,7 +1213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -1191,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -1199,7 +1229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -1207,7 +1237,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2012</v>
       </c>
@@ -1215,7 +1245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2013</v>
       </c>
@@ -1223,7 +1253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2013</v>
       </c>
@@ -1231,7 +1261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2014</v>
       </c>
@@ -1239,7 +1269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2014</v>
       </c>
@@ -1247,7 +1277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -1255,7 +1285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -1263,7 +1293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2016</v>
       </c>
@@ -1271,12 +1301,92 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2016</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2017</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2017</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2018</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2018</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2019</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2019</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2021</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2021</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
